--- a/Maps and node data/Initial_node_data.xlsx
+++ b/Maps and node data/Initial_node_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4723f8dbc32384f8/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pietro Deligios\Documents\GitHub\Vehicle-Routing-Problem\Maps and node data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37FB9308-95B6-4747-86EF-576D836CA815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8FF0A5-829C-4059-9F26-7DAA337E390F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9250" yWindow="2660" windowWidth="13210" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7650" yWindow="-21600" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +471,7 @@
         <v>9.3491843768482408</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F35" si="0">(E4-4)/(10-4)</f>
+        <f t="shared" ref="F4:F8" si="0">(E4-4)/(10-4)</f>
         <v>0.8915307294747068</v>
       </c>
     </row>
@@ -529,432 +529,522 @@
         <v>0.69175758175888336</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>437.58721126</v>
+      </c>
+      <c r="C8">
+        <v>198.06286476</v>
+      </c>
+      <c r="D8">
+        <v>1.9917509900000001</v>
+      </c>
+      <c r="E8">
+        <v>6.2720856500000002</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37868094166666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>500</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>500</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>720.32449344220004</v>
-      </c>
-      <c r="C10">
-        <v>19.475241487600002</v>
-      </c>
-      <c r="D10">
-        <v>1.9581055665</v>
-      </c>
-      <c r="E10">
-        <v>5.7346579586999997</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.28910965978333331</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>0.1143748173</v>
+        <v>720.32449344220004</v>
       </c>
       <c r="C11">
-        <v>463.21852649829998</v>
+        <v>19.475241487600002</v>
       </c>
       <c r="D11">
-        <v>1.7703129322</v>
+        <v>1.9581055665</v>
       </c>
       <c r="E11">
-        <v>8.3257980810000003</v>
+        <v>5.7346579586999997</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.72096634683333338</v>
+        <f>(E11-4)/(10-4)</f>
+        <v>0.28910965978333331</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>302.33257263180002</v>
+        <v>0.1143748173</v>
       </c>
       <c r="C12">
-        <v>724.93392919209998</v>
+        <v>463.21852649829998</v>
       </c>
       <c r="D12">
-        <v>1.9868700030999999</v>
+        <v>1.7703129322</v>
       </c>
       <c r="E12">
-        <v>4.1296974994999998</v>
+        <v>8.3257980810000003</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1616249916666625E-2</v>
+        <f>(E12-4)/(10-4)</f>
+        <v>0.72096634683333338</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>146.75589081710001</v>
+        <v>302.33257263180002</v>
       </c>
       <c r="C13">
-        <v>420.2036045877</v>
+        <v>724.93392919209998</v>
       </c>
       <c r="D13">
-        <v>1.2081654619</v>
+        <v>1.9868700030999999</v>
       </c>
       <c r="E13">
-        <v>5.2355365915999998</v>
+        <v>4.1296974994999998</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20592276526666664</v>
+        <f>(E13-4)/(10-4)</f>
+        <v>2.1616249916666625E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14">
+        <v>146.75589081710001</v>
+      </c>
+      <c r="C14">
+        <v>420.2036045877</v>
+      </c>
+      <c r="D14">
+        <v>1.2081654619</v>
+      </c>
+      <c r="E14">
+        <v>5.2355365915999998</v>
+      </c>
+      <c r="F14" s="1">
+        <f>(E14-4)/(10-4)</f>
+        <v>0.20592276526666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15">
         <v>92.338589999999996</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>485.42700000000002</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>1.136917</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>4.3046395400000002</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
+      <c r="F15" s="1">
+        <f>(E15-4)/(10-4)</f>
         <v>5.077325666666669E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>186.260211</v>
+      </c>
+      <c r="C16">
+        <v>12.78081459</v>
+      </c>
+      <c r="D16">
+        <v>1.9083737999999999</v>
+      </c>
+      <c r="E16">
+        <v>5.8136313599999996</v>
+      </c>
+      <c r="F16" s="1">
+        <f>(E16-4)/(10-4)</f>
+        <v>0.30227189333333326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>500</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>500</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>25.926231827900001</v>
-      </c>
-      <c r="C17">
-        <v>740.0496965154</v>
-      </c>
-      <c r="D17">
-        <v>1.372711155</v>
-      </c>
-      <c r="E17">
-        <v>6.8900863705999997</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.48168106176666664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>549.66247787869997</v>
-      </c>
-      <c r="C18">
-        <v>263.31501518509998</v>
-      </c>
-      <c r="D18">
-        <v>1.555128778</v>
-      </c>
-      <c r="E18">
-        <v>6.5232282119000002</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.42053803531666673</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>435.3223926183</v>
+        <v>25.926231827900001</v>
       </c>
       <c r="C19">
-        <v>533.73939338030004</v>
+        <v>740.0496965154</v>
       </c>
       <c r="D19">
-        <v>1.955656549</v>
+        <v>1.372711155</v>
       </c>
       <c r="E19">
-        <v>9.1550919911000008</v>
+        <v>6.8900863705999997</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.85918199851666677</v>
+        <f>(E19-4)/(10-4)</f>
+        <v>0.48168106176666664</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>420.36780208750002</v>
+        <v>549.66247787869997</v>
       </c>
       <c r="C20">
-        <v>14.5749624854</v>
+        <v>263.31501518509998</v>
       </c>
       <c r="D20">
-        <v>1.736669598</v>
+        <v>1.555128778</v>
       </c>
       <c r="E20">
-        <v>5.0269693217000002</v>
+        <v>6.5232282119000002</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17116155361666671</v>
+        <f>(E20-4)/(10-4)</f>
+        <v>0.42053803531666673</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
+        <v>435.3223926183</v>
+      </c>
+      <c r="C21">
+        <v>533.73939338030004</v>
+      </c>
+      <c r="D21">
+        <v>1.955656549</v>
+      </c>
+      <c r="E21">
+        <v>9.1550919911000008</v>
+      </c>
+      <c r="F21" s="1">
+        <f>(E21-4)/(10-4)</f>
+        <v>0.85918199851666677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>420.36780208750002</v>
+      </c>
+      <c r="C22">
+        <v>14.5749624854</v>
+      </c>
+      <c r="D22">
+        <v>1.736669598</v>
+      </c>
+      <c r="E22">
+        <v>5.0269693217000002</v>
+      </c>
+      <c r="F22" s="1">
+        <f>(E22-4)/(10-4)</f>
+        <v>0.17116155361666671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23">
         <v>330.33481999999998</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>918.74699999999996</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>1.8162050000000001</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>6.0331830000000002</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
+      <c r="F23" s="1">
+        <f>(E23-4)/(10-4)</f>
         <v>0.33886383333333336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>500</v>
-      </c>
-      <c r="C23">
-        <v>500</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>708.14782261810001</v>
+        <v>204.64863403999999</v>
       </c>
       <c r="C24">
-        <v>237.54122003489999</v>
+        <v>900.71485412000004</v>
       </c>
       <c r="D24">
-        <v>1.4499754211</v>
+        <v>1.1010865599999999</v>
       </c>
       <c r="E24">
-        <v>9.6817756229</v>
+        <v>5.6231970000000002</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94696260381666664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>290.90473891289997</v>
-      </c>
-      <c r="C25">
-        <v>824.27853266140005</v>
-      </c>
-      <c r="D25">
-        <v>1.4109408029999999</v>
-      </c>
-      <c r="E25">
-        <v>8.5927585563999997</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76545975939999999</v>
+        <f>(E24-4)/(10-4)</f>
+        <v>0.27053283333333339</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
       <c r="B26">
-        <v>510.8276051977</v>
+        <v>500</v>
       </c>
       <c r="C26">
-        <v>965.74919804299998</v>
+        <v>500</v>
       </c>
       <c r="D26">
-        <v>1.2602996908999999</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>5.6943750637999999</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.28239584396666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>892.94695434769994</v>
+        <v>708.14782261810001</v>
       </c>
       <c r="C27">
-        <v>972.60111390489999</v>
+        <v>237.54122003489999</v>
       </c>
       <c r="D27">
-        <v>1.8703956882999999</v>
+        <v>1.4499754211</v>
       </c>
       <c r="E27">
-        <v>5.3262721796000001</v>
+        <v>9.6817756229</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.22104536326666668</v>
+        <f>(E27-4)/(10-4)</f>
+        <v>0.94696260381666664</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>896.29308000000003</v>
+        <v>290.90473891289997</v>
       </c>
       <c r="C28">
-        <v>453.44920000000002</v>
+        <v>824.27853266140005</v>
       </c>
       <c r="D28">
-        <v>1.1850399</v>
+        <v>1.4109408029999999</v>
       </c>
       <c r="E28">
-        <v>8.1173324999999998</v>
+        <v>8.5927585563999997</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.68622208333333334</v>
+        <f>(E28-4)/(10-4)</f>
+        <v>0.76545975939999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>510.8276051977</v>
+      </c>
+      <c r="C29">
+        <v>965.74919804299998</v>
+      </c>
+      <c r="D29">
+        <v>1.2602996908999999</v>
+      </c>
+      <c r="E29">
+        <v>5.6943750637999999</v>
+      </c>
+      <c r="F29" s="1">
+        <f>(E29-4)/(10-4)</f>
+        <v>0.28239584396666667</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
       <c r="B30">
-        <v>500</v>
+        <v>892.94695434769994</v>
       </c>
       <c r="C30">
-        <v>500</v>
+        <v>972.60111390489999</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.8703956882999999</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>5.3262721796000001</v>
+      </c>
+      <c r="F30" s="1">
+        <f>(E30-4)/(10-4)</f>
+        <v>0.22104536326666668</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>547.23224917569996</v>
+        <v>896.29308000000003</v>
       </c>
       <c r="C31">
-        <v>773.16505207930004</v>
+        <v>453.44920000000002</v>
       </c>
       <c r="D31">
-        <v>1.7801004604999999</v>
+        <v>1.1850399</v>
       </c>
       <c r="E31">
-        <v>8.1970722997000003</v>
+        <v>8.1173324999999998</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69951204995000005</v>
+        <f>(E31-4)/(10-4)</f>
+        <v>0.68622208333333334</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32">
+        <v>125.58531046</v>
+      </c>
+      <c r="C32">
+        <v>609.04246276000003</v>
+      </c>
+      <c r="D32">
+        <v>1.01966143</v>
+      </c>
+      <c r="E32">
+        <v>5.0028352199999997</v>
+      </c>
+      <c r="F32" s="1">
+        <f>(E32-4)/(10-4)</f>
+        <v>0.16713920333333329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>500</v>
+      </c>
+      <c r="C34">
+        <v>500</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>547.23224917569996</v>
+      </c>
+      <c r="C35">
+        <v>773.16505207930004</v>
+      </c>
+      <c r="D35">
+        <v>1.7801004604999999</v>
+      </c>
+      <c r="E35">
+        <v>8.1970722997000003</v>
+      </c>
+      <c r="F35" s="1">
+        <f>(E35-4)/(10-4)</f>
+        <v>0.69951204995000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B36">
         <v>972.68435996489995</v>
       </c>
-      <c r="C32">
+      <c r="C36">
         <v>870.42768572479997</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>1.0927037553000001</v>
       </c>
-      <c r="E32">
+      <c r="E36">
         <v>9.9992037557</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
+      <c r="F36" s="1">
+        <f>(E36-4)/(10-4)</f>
         <v>0.99986729261666663</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B37">
         <v>714.81599367440003</v>
       </c>
-      <c r="C33">
+      <c r="C37">
         <v>8.0469485297999999</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <v>1.6328926865</v>
       </c>
-      <c r="E33">
+      <c r="E37">
         <v>5.3204037987000001</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
+      <c r="F37" s="1">
+        <f>(E37-4)/(10-4)</f>
         <v>0.22006729978333336</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B38">
         <v>697.72882459729999</v>
       </c>
-      <c r="C34">
+      <c r="C38">
         <v>309.73592550519999</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <v>1.0138908483</v>
       </c>
-      <c r="E34">
+      <c r="E38">
         <v>6.1663381238000001</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
+      <c r="F38" s="1">
+        <f>(E38-4)/(10-4)</f>
         <v>0.36105635396666669</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B39">
         <v>216.08949000000001</v>
       </c>
-      <c r="C35">
+      <c r="C39">
         <v>957.60373900000002</v>
       </c>
-      <c r="D35">
+      <c r="D39">
         <v>1.9361585299999999</v>
       </c>
-      <c r="E35">
+      <c r="E39">
         <v>8.4390450000000001</v>
       </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
+      <c r="F39" s="1">
+        <f>(E39-4)/(10-4)</f>
         <v>0.73984083333333339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>976.27445478000004</v>
+      </c>
+      <c r="C40">
+        <v>513.11671226999999</v>
+      </c>
+      <c r="D40">
+        <v>1.4265743799999999</v>
+      </c>
+      <c r="E40">
+        <v>9.9787343499999999</v>
+      </c>
+      <c r="F40" s="1">
+        <f>(E40-4)/(10-4)</f>
+        <v>0.99645572500000001</v>
       </c>
     </row>
   </sheetData>
